--- a/data/trans_bre/P15E_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P15E_R-Habitat-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-29.23872251537947</v>
+        <v>-28.22985339102989</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.3226692546637603</v>
+        <v>-0.3180283245596199</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.66296184176204</v>
+        <v>14.98278892922993</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.1592498722766655</v>
+        <v>0.2149828736768897</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>15.78878144768616</v>
+        <v>15.78878144768615</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.2732074827920986</v>
+        <v>0.2732074827920984</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-15.50518948713936</v>
+        <v>-15.28672161158613</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1796237580878682</v>
+        <v>-0.1834078882900858</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>47.24699437292795</v>
+        <v>46.73497343894417</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.562547392358511</v>
+        <v>1.473120196896447</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>24.57246465574469</v>
+        <v>24.57246465574467</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.4082838882619318</v>
+        <v>0.4082838882619317</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-14.51134990198478</v>
+        <v>-16.3897720464418</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.150111518688475</v>
+        <v>-0.1699973809330092</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>69.56182363275853</v>
+        <v>65.79964638933494</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>4.193981484775829</v>
+        <v>2.880182651309791</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>12.65833570060631</v>
+        <v>12.6583357006063</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.271283412187942</v>
+        <v>0.2712834121879418</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-18.73983503407317</v>
+        <v>-19.36714282424752</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2797855403380473</v>
+        <v>-0.294417355104422</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>41.26178526309322</v>
+        <v>40.92829325342359</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.68384604299752</v>
+        <v>1.564057555234851</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>8.902666934337322</v>
+        <v>8.902666934337333</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.1390662433073198</v>
+        <v>0.13906624330732</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.715311063267312</v>
+        <v>-5.021279215627996</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.08729650589058829</v>
+        <v>-0.06694164860009816</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.68677826600818</v>
+        <v>23.7276209768889</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.4459724706913721</v>
+        <v>0.4551849865324136</v>
       </c>
     </row>
     <row r="19">
